--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14925" windowHeight="7515" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="126账号" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,18 +167,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -228,9 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,24 +278,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +316,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,36 +478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,126 +497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,16 +535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +566,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -574,42 +585,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,166 +612,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
@@ -1131,29 +1119,32 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1161,13 +1152,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1178,13 +1169,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1207,11 +1198,14 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">

--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>序号</t>
   </si>
@@ -36,10 +36,10 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>goffgao@vectorbuilder.net</t>
-  </si>
-  <si>
-    <t>goffgao123456Qw_</t>
+    <t>goffgao1</t>
+  </si>
+  <si>
+    <t>123456Qw</t>
   </si>
   <si>
     <t>联系人</t>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>我爱祖国</t>
+  </si>
+  <si>
+    <t>2019-02-11 15: 35:27</t>
   </si>
   <si>
     <t>联系人姓名</t>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -165,15 +171,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,23 +289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,97 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,45 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,26 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,8 +549,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,157 +618,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1117,34 +1124,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1158,7 +1166,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1175,16 +1183,24 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="goffgao@vectorbuilder.net"/>
+    <hyperlink ref="B2" r:id="rId1" display="goffgao1"/>
     <hyperlink ref="B3" r:id="rId2" display="1021411037@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,38 +1220,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1244,22 +1260,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1270,22 +1286,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1296,19 +1312,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1316,16 +1332,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1334,11 +1350,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="goffgao1@163.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="goffgao1@163.com"/>
     <hyperlink ref="C3" r:id="rId2" display="goffgao2@163.com" tooltip="mailto:goffgao2@163.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="goffgao2@163.com"/>
     <hyperlink ref="C4" r:id="rId3" display="goffgao3@163.com" tooltip="mailto:goffgao3@163.com"/>
     <hyperlink ref="C5" r:id="rId4" display="goffgao4@163.com" tooltip="mailto:goffgao4@163.com"/>
-    <hyperlink ref="G2" r:id="rId1" display="goffgao1@163.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="goffgao2@163.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -54,6 +54,9 @@
     <t>test</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>我爱祖国</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>13533xxxxx3</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>goff4</t>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1187,15 +1187,15 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="10:11">
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1228,28 +1228,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -1260,22 +1260,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1286,22 +1286,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1312,19 +1312,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1338,7 +1338,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>

--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>序号</t>
   </si>
@@ -89,19 +89,25 @@
     <t>goff5</t>
   </si>
   <si>
-    <t>goffggao5@163.com</t>
+    <t>goffgao5@163.com</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
+    <t>13533xxxxx5</t>
+  </si>
+  <si>
     <t>常联系人</t>
   </si>
   <si>
-    <t>goffgao5@163.com</t>
-  </si>
-  <si>
-    <t>2019-02-12 18: 14:36</t>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>2019-02-13 16: 53:39</t>
+  </si>
+  <si>
+    <t>error错误</t>
   </si>
   <si>
     <t>goff2</t>
@@ -119,6 +125,9 @@
     <t>不常联系人</t>
   </si>
   <si>
+    <t>2019-02-13 16: 53:49</t>
+  </si>
+  <si>
     <t>goff3</t>
   </si>
   <si>
@@ -128,6 +137,12 @@
     <t>13533xxxxx3</t>
   </si>
   <si>
+    <t>goffgao3</t>
+  </si>
+  <si>
+    <t>2019-02-13 16: 54:01</t>
+  </si>
+  <si>
     <t>goff4</t>
   </si>
   <si>
@@ -135,6 +150,21 @@
   </si>
   <si>
     <t>13533xxxxx4</t>
+  </si>
+  <si>
+    <t>李3</t>
+  </si>
+  <si>
+    <t>2019-02-13 16: 54:13</t>
+  </si>
+  <si>
+    <t>goff6</t>
+  </si>
+  <si>
+    <t>goffgao6@163.com</t>
+  </si>
+  <si>
+    <t>2019-02-13 16: 54:23</t>
   </si>
 </sst>
 </file>
@@ -142,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +206,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF3030"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -186,6 +250,42 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,97 +298,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,30 +369,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,31 +483,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,91 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +560,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,9 +622,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,15 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,178 +660,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,9 +826,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,18 +1263,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1268,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1281,96 +1323,145 @@
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>13533931311</v>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="goffggao5@163.com"/>
-    <hyperlink ref="G2" r:id="rId2" display="goffgao5@163.com" tooltip="mailto:goffgao5@163.com"/>
-    <hyperlink ref="C3" r:id="rId3" display="goffgao2@163.com" tooltip="mailto:goffgao2@163.com"/>
-    <hyperlink ref="G3" r:id="rId3" display="goffgao2@163.com"/>
-    <hyperlink ref="C4" r:id="rId4" display="goffgao3@163.com" tooltip="mailto:goffgao3@163.com"/>
-    <hyperlink ref="C5" r:id="rId5" display="goffgao4@163.com" tooltip="mailto:goffgao4@163.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="goffgao5@163.com" tooltip="mailto:goffgao5@163.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="goffgao2@163.com" tooltip="mailto:goffgao2@163.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="goffgao2@163.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="goffgao3@163.com" tooltip="mailto:goffgao3@163.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="goffgao4@163.com" tooltip="mailto:goffgao4@163.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="goffgao6@163.com" tooltip="mailto:goffgao6@163.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>序号</t>
   </si>
@@ -50,6 +50,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>faild失败</t>
+  </si>
+  <si>
     <t>1021411037@qq.com</t>
   </si>
   <si>
@@ -104,7 +107,7 @@
     <t>李四</t>
   </si>
   <si>
-    <t>2019-02-13 16: 53:39</t>
+    <t>2019-02-14 14: 36:55</t>
   </si>
   <si>
     <t>error错误</t>
@@ -125,7 +128,10 @@
     <t>不常联系人</t>
   </si>
   <si>
-    <t>2019-02-13 16: 53:49</t>
+    <t>2019-02-14 14: 37:08</t>
+  </si>
+  <si>
+    <t>pass通过</t>
   </si>
   <si>
     <t>goff3</t>
@@ -140,7 +146,7 @@
     <t>goffgao3</t>
   </si>
   <si>
-    <t>2019-02-13 16: 54:01</t>
+    <t>2019-02-14 14: 37:23</t>
   </si>
   <si>
     <t>goff4</t>
@@ -155,7 +161,7 @@
     <t>李3</t>
   </si>
   <si>
-    <t>2019-02-13 16: 54:13</t>
+    <t>2019-02-14 14: 37:35</t>
   </si>
   <si>
     <t>goff6</t>
@@ -164,7 +170,7 @@
     <t>goffgao6@163.com</t>
   </si>
   <si>
-    <t>2019-02-13 16: 54:23</t>
+    <t>2019-02-14 14: 37:45</t>
   </si>
 </sst>
 </file>
@@ -172,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -218,21 +224,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -253,6 +267,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -260,15 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +331,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -312,49 +352,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,120 +375,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,66 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,20 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +589,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +619,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,41 +660,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,149 +671,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,6 +1228,9 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1229,24 +1238,24 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="10:11">
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1266,14 +1275,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
   </cols>
@@ -1283,28 +1292,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -1315,31 +1324,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1347,85 +1356,89 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1433,25 +1446,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
